--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBE3E0D-1EF7-4885-A0DE-EC0EC60AC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F64291-EA6A-4578-8C5A-67DB691AC5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -111,6 +111,10 @@
   </si>
   <si>
     <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +550,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -619,9 +623,15 @@
       <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -713,9 +723,15 @@
       <c r="D5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="3"/>
@@ -743,9 +759,15 @@
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="4">
+        <v>100</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>100</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F64291-EA6A-4578-8C5A-67DB691AC5D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C2724-E0F6-47A2-B699-094AB83B8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -115,6 +115,14 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoot_cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击CD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +558,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -594,7 +602,9 @@
       <c r="G1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -632,7 +642,9 @@
       <c r="G2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -696,7 +708,9 @@
       <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -724,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4">
         <v>100</v>
@@ -732,7 +746,9 @@
       <c r="G5" s="4">
         <v>100</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -760,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4">
         <v>100</v>
@@ -768,7 +784,9 @@
       <c r="G6" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
       <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638C2724-E0F6-47A2-B699-094AB83B8107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6674F893-0992-4707-B24E-DE6E133FB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,7 +558,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="4">
         <v>100</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="4">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="4">
         <v>100</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6674F893-0992-4707-B24E-DE6E133FB8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28757C85-C688-4CC9-9276-B558166D28FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G5" s="4">
         <v>100</v>
@@ -779,7 +779,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="4">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="G6" s="4">
         <v>100</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28757C85-C688-4CC9-9276-B558166D28FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6256EA-E063-478E-B10A-1A4E0248ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -83,9 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Beamcaster0</t>
-  </si>
-  <si>
     <t>Beamcaster1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,6 +120,26 @@
   </si>
   <si>
     <t>攻击CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Boltthrower </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beamcaster0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beamcaster</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,12 +570,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -566,21 +583,21 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" style="9" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="9" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
-    <col min="10" max="11" width="22.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="4" max="5" width="14" style="9" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="9" customWidth="1"/>
+    <col min="7" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,33 +611,36 @@
         <v>11</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -634,33 +654,36 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -675,7 +698,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -685,8 +708,9 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -700,33 +724,36 @@
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -735,36 +762,39 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="4">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
         <v>20</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="4">
         <v>300</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="4">
         <v>100</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -773,27 +803,29 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="4">
         <v>300</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
         <v>100</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -801,8 +833,9 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -812,12 +845,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -825,8 +858,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -836,12 +870,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -849,8 +883,9 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -860,12 +895,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -873,8 +908,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -884,12 +920,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -897,8 +933,9 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -908,12 +945,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -921,8 +958,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -932,12 +970,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -945,8 +983,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -956,12 +995,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -969,8 +1008,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -980,12 +1020,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -993,8 +1033,9 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1004,12 +1045,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1017,8 +1058,9 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1028,12 +1070,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1041,8 +1083,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1052,12 +1095,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1065,8 +1108,9 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1076,12 +1120,12 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1089,8 +1133,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1100,12 +1145,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1113,8 +1158,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1124,12 +1170,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1137,8 +1183,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1148,12 +1195,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1161,8 +1208,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1172,12 +1220,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1185,8 +1233,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1196,12 +1245,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1209,8 +1258,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1220,12 +1270,12 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1233,8 +1283,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1244,12 +1295,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1257,8 +1308,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1268,12 +1320,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1281,8 +1333,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1292,12 +1345,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -1305,8 +1358,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1316,12 +1370,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -1329,8 +1383,9 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1340,12 +1395,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -1353,8 +1408,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1364,12 +1420,12 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1377,8 +1433,9 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1388,12 +1445,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -1401,8 +1458,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1412,12 +1470,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -1425,8 +1483,9 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1436,12 +1495,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -1449,8 +1508,9 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1460,12 +1520,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -1473,8 +1533,9 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1484,12 +1545,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -1497,8 +1558,9 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1508,12 +1570,12 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -1521,8 +1583,9 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1532,12 +1595,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -1545,8 +1608,9 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1556,12 +1620,12 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -1569,8 +1633,9 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1580,7 +1645,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1593,8 +1658,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1604,7 +1670,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1617,8 +1683,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1628,7 +1695,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1641,8 +1708,9 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1652,7 +1720,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1665,8 +1733,9 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1676,7 +1745,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1689,8 +1758,9 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1700,7 +1770,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1713,8 +1783,9 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1724,7 +1795,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1737,8 +1808,9 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1748,7 +1820,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1761,8 +1833,9 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1772,7 +1845,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1785,8 +1858,9 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1796,7 +1870,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1809,8 +1883,9 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1820,7 +1895,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1833,8 +1908,9 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1844,7 +1920,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="3"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1857,8 +1933,9 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1868,7 +1945,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -1881,8 +1958,9 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1892,7 +1970,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="3"/>
+      <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -1905,8 +1983,9 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1916,7 +1995,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="3"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -1929,8 +2008,9 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1940,7 +2020,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="3"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -1953,8 +2033,9 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1964,7 +2045,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="3"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -1977,8 +2058,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1988,7 +2070,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2001,8 +2083,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2012,7 +2095,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="3"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -2025,8 +2108,9 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2036,7 +2120,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="4"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -2049,8 +2133,9 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2060,7 +2145,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="4"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -2073,8 +2158,9 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2084,7 +2170,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -2097,8 +2183,9 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2108,7 +2195,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -2121,8 +2208,9 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2132,7 +2220,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="4"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2145,8 +2233,9 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2156,7 +2245,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="4"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -2169,8 +2258,9 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2180,7 +2270,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="4"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2193,8 +2283,9 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2204,7 +2295,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="3"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -2217,8 +2308,9 @@
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2228,7 +2320,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -2241,8 +2333,9 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2252,7 +2345,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="4"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2265,8 +2358,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2276,7 +2370,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2289,8 +2383,9 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2300,7 +2395,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -2313,8 +2408,9 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2324,7 +2420,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="3"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -2337,8 +2433,9 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2348,7 +2445,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="4"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -2361,8 +2458,9 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2372,7 +2470,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -2385,8 +2483,9 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2396,7 +2495,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="4"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -2409,8 +2508,9 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2420,7 +2520,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="4"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2433,8 +2533,9 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2444,7 +2545,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2457,8 +2558,9 @@
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2468,7 +2570,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -2481,8 +2583,9 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2492,7 +2595,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2505,8 +2608,9 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2516,7 +2620,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="4"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -2529,8 +2633,9 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2540,7 +2645,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -2553,8 +2658,9 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2564,7 +2670,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -2577,8 +2683,9 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2588,7 +2695,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -2601,8 +2708,9 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2612,7 +2720,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -2625,8 +2733,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2636,7 +2745,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="4"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -2649,8 +2758,9 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2660,7 +2770,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="4"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -2673,8 +2783,9 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2684,7 +2795,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="4"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -2697,8 +2808,9 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2708,7 +2820,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="3"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -2721,8 +2833,9 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2732,7 +2845,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -2745,8 +2858,9 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2756,7 +2870,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="4"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -2769,8 +2883,9 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2780,7 +2895,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="3"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -2793,8 +2908,9 @@
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2804,7 +2920,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -2817,8 +2933,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2828,7 +2945,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -2841,8 +2958,9 @@
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2852,7 +2970,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -2865,8 +2983,9 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2876,7 +2995,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -2889,8 +3008,9 @@
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2900,7 +3020,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -2913,8 +3033,9 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2924,7 +3045,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -2937,8 +3058,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2948,7 +3070,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -2961,8 +3083,9 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2972,7 +3095,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -2985,8 +3108,9 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2996,7 +3120,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -3009,8 +3133,9 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3020,7 +3145,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -3033,8 +3158,9 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3044,7 +3170,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -3057,6 +3183,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6256EA-E063-478E-B10A-1A4E0248ECBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D81B57-4D18-4DFD-8F30-50B1543F21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -75,18 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>icon_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beamcaster1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>血量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -123,23 +111,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ai_name</t>
+    <t>Beamcaster</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AI名称</t>
+    <t>scene_name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Boltthrower </t>
+    <t>场景名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Beamcaster0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Beamcaster</t>
+    <t>Boltthrower</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,12 +554,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -583,21 +567,21 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="9" customWidth="1"/>
-    <col min="7" max="8" width="12.5546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
+    <col min="6" max="7" width="12.5546875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
+    <col min="10" max="11" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="13.5546875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,39 +592,36 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,36 +635,33 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -698,7 +676,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -708,9 +686,8 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -721,39 +698,36 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -762,39 +736,36 @@
         <v>9</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20</v>
       </c>
       <c r="F5" s="4">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G5" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4">
-        <v>100</v>
-      </c>
-      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -803,29 +774,27 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20</v>
       </c>
       <c r="F6" s="4">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G6" s="4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H6" s="4">
-        <v>100</v>
-      </c>
-      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -833,9 +802,8 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -845,12 +813,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -858,9 +826,8 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -870,12 +837,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -883,9 +850,8 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:22" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -895,12 +861,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -908,9 +874,8 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:22" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -920,12 +885,12 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -933,9 +898,8 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -945,12 +909,12 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -958,9 +922,8 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -970,12 +933,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -983,9 +946,8 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -995,12 +957,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1008,9 +970,8 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1020,12 +981,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1033,9 +994,8 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1045,12 +1005,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1058,9 +1018,8 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1070,12 +1029,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1083,9 +1042,8 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1095,12 +1053,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1108,9 +1066,8 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1120,12 +1077,12 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1133,9 +1090,8 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1145,12 +1101,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1158,9 +1114,8 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1170,12 +1125,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1183,9 +1138,8 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1195,12 +1149,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1208,9 +1162,8 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1220,12 +1173,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1233,9 +1186,8 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1245,12 +1197,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1258,9 +1210,8 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1270,12 +1221,12 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1283,9 +1234,8 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="25" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1295,12 +1245,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1308,9 +1258,8 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1320,12 +1269,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1333,9 +1282,8 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1345,12 +1293,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -1358,9 +1306,8 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1370,12 +1317,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -1383,9 +1330,8 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1395,12 +1341,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -1408,9 +1354,8 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1420,12 +1365,12 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1433,9 +1378,8 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1445,12 +1389,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -1458,9 +1402,8 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1470,12 +1413,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -1483,9 +1426,8 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1495,12 +1437,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -1508,9 +1450,8 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1520,12 +1461,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -1533,9 +1474,8 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1545,12 +1485,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -1558,9 +1498,8 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1570,12 +1509,12 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -1583,9 +1522,8 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1595,12 +1533,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -1608,9 +1546,8 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1620,12 +1557,12 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -1633,9 +1570,8 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1645,7 +1581,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1658,9 +1594,8 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="40" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1670,7 +1605,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1683,9 +1618,8 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1695,7 +1629,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1708,9 +1642,8 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="42" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1720,7 +1653,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1733,9 +1666,8 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="43" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1745,7 +1677,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1758,9 +1690,8 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1770,7 +1701,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1783,9 +1714,8 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1795,7 +1725,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1808,9 +1738,8 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1820,7 +1749,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1833,9 +1762,8 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="47" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1845,7 +1773,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1858,9 +1786,8 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1870,7 +1797,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1883,9 +1810,8 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="49" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1895,7 +1821,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1908,9 +1834,8 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="50" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1920,7 +1845,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1933,9 +1858,8 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="51" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1945,7 +1869,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -1958,9 +1882,8 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="52" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1970,7 +1893,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -1983,9 +1906,8 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="53" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1995,7 +1917,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2008,9 +1930,8 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="54" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2020,7 +1941,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2033,9 +1954,8 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2045,7 +1965,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -2058,9 +1978,8 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="56" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2070,7 +1989,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2083,9 +2002,8 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="57" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2095,7 +2013,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -2108,9 +2026,8 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2120,7 +2037,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -2133,9 +2050,8 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="59" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2145,7 +2061,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -2158,9 +2074,8 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="60" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2170,7 +2085,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="J60" s="3"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -2183,9 +2098,8 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="61" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2195,7 +2109,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -2208,9 +2122,8 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="62" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2220,7 +2133,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2233,9 +2146,8 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="63" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2245,7 +2157,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -2258,9 +2170,8 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="64" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2270,7 +2181,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
+      <c r="J64" s="3"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2283,9 +2194,8 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="65" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2295,7 +2205,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
+      <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -2308,9 +2218,8 @@
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="66" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2320,7 +2229,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -2333,9 +2242,8 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="67" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2345,7 +2253,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2358,9 +2266,8 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="68" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2370,7 +2277,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="J68" s="3"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2383,9 +2290,8 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="69" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2395,7 +2301,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -2408,9 +2314,8 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="70" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2420,7 +2325,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -2433,9 +2338,8 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-      <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="71" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2445,7 +2349,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -2458,9 +2362,8 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-      <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="72" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2470,7 +2373,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -2483,9 +2386,8 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="73" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2495,7 +2397,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -2508,9 +2410,8 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="74" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2520,7 +2421,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2533,9 +2434,8 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="75" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2545,7 +2445,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2558,9 +2458,8 @@
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2570,7 +2469,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -2583,9 +2482,8 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="77" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2595,7 +2493,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2608,9 +2506,8 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="78" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2620,7 +2517,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -2633,9 +2530,8 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="79" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2645,7 +2541,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -2658,9 +2554,8 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="80" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2670,7 +2565,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
+      <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -2683,9 +2578,8 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="81" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2695,7 +2589,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
+      <c r="J81" s="3"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -2708,9 +2602,8 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-      <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="82" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2720,7 +2613,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -2733,9 +2626,8 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-      <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="83" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2745,7 +2637,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="J83" s="3"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -2758,9 +2650,8 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-      <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="84" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2770,7 +2661,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -2783,9 +2674,8 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="85" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2795,7 +2685,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -2808,9 +2698,8 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-      <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="86" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2820,7 +2709,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -2833,9 +2722,8 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-      <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="87" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2845,7 +2733,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -2858,9 +2746,8 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-      <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="88" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2870,7 +2757,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -2883,9 +2770,8 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="89" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2895,7 +2781,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
+      <c r="J89" s="3"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -2908,9 +2794,8 @@
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-      <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="90" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2920,7 +2805,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
+      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -2933,9 +2818,8 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-      <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2945,7 +2829,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -2958,9 +2842,8 @@
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-      <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="92" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2970,7 +2853,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
+      <c r="J92" s="3"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -2983,9 +2866,8 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-      <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="93" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2995,7 +2877,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
+      <c r="J93" s="3"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -3008,9 +2890,8 @@
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-      <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="94" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3020,7 +2901,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
+      <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -3033,9 +2914,8 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-      <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="95" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3045,7 +2925,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
+      <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -3058,9 +2938,8 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="96" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3070,7 +2949,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
+      <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -3083,9 +2962,8 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-      <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="97" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3095,7 +2973,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
+      <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -3108,9 +2986,8 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-      <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="98" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3120,7 +2997,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -3133,9 +3010,8 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-      <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="99" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3145,7 +3021,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -3158,9 +3034,8 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    </row>
+    <row r="100" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3170,7 +3045,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
+      <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -3183,7 +3058,6 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D81B57-4D18-4DFD-8F30-50B1543F21F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73748DC1-B9D7-4FCB-ACAE-24D0AAABDCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5808" yWindow="3388" windowWidth="17426" windowHeight="9052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -745,7 +745,7 @@
         <v>300</v>
       </c>
       <c r="G5" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -783,7 +783,7 @@
         <v>300</v>
       </c>
       <c r="G6" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73748DC1-B9D7-4FCB-ACAE-24D0AAABDCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0355827-D867-439E-92DE-DA755F798E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5808" yWindow="3388" windowWidth="17426" windowHeight="9052" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>Boltthrower</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>典狱长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wardens</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +567,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -805,13 +813,27 @@
     </row>
     <row r="7" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4">
+        <v>300</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0355827-D867-439E-92DE-DA755F798E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0A26F-CD04-4DB3-9C3E-98AA540DAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -132,6 +132,14 @@
   </si>
   <si>
     <t>Wardens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swallow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燕子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +575,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -851,13 +859,27 @@
     </row>
     <row r="8" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4">
+        <v>600</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
       <c r="I8" s="4"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0A26F-CD04-4DB3-9C3E-98AA540DAE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62263514-E0BC-411E-8D67-0B0155C3774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t>燕子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celestial</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,7 +583,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -897,13 +905,27 @@
     </row>
     <row r="9" spans="1:22" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4">
+        <v>400</v>
+      </c>
+      <c r="F9" s="4">
+        <v>600</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62263514-E0BC-411E-8D67-0B0155C3774D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD9215-8279-488B-AAB8-B3936762125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>Celestial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gyrogun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +591,7 @@
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -943,13 +951,27 @@
     </row>
     <row r="10" spans="1:22" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="3">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="4">
+        <v>50</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.2</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AD9215-8279-488B-AAB8-B3936762125C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45729DE5-64A0-47E0-9E45-8D249705AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -156,6 +156,22 @@
   </si>
   <si>
     <t>陀螺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pulsar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉冲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>targeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转向速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -586,12 +602,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -601,19 +617,19 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
-    <col min="6" max="7" width="12.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.21875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" style="9" customWidth="1"/>
-    <col min="10" max="11" width="22.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.5546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.21875" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,24 +652,27 @@
         <v>15</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
-      <c r="M1" s="1"/>
+      <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -678,22 +697,25 @@
       <c r="H2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
-      <c r="M2" s="2"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +730,7 @@
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -718,8 +740,9 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -742,24 +765,27 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
-      <c r="M4" s="2"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -780,24 +806,27 @@
         <v>10</v>
       </c>
       <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <v>1</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="3"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="4"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -818,15 +847,17 @@
         <v>10</v>
       </c>
       <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -834,8 +865,9 @@
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -856,15 +888,17 @@
         <v>10</v>
       </c>
       <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -872,8 +906,9 @@
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="3">
         <v>1004</v>
@@ -894,15 +929,17 @@
         <v>10</v>
       </c>
       <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -910,8 +947,9 @@
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10"/>
       <c r="B9" s="3">
         <v>1005</v>
@@ -932,15 +970,17 @@
         <v>10</v>
       </c>
       <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -948,8 +988,9 @@
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3">
         <v>1006</v>
@@ -970,15 +1011,17 @@
         <v>5</v>
       </c>
       <c r="H10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J10" s="4"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -986,23 +1029,40 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="3"/>
+      <c r="B11" s="3">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4">
+        <v>400</v>
+      </c>
+      <c r="F11" s="4">
+        <v>600</v>
+      </c>
+      <c r="G11" s="4">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>70</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1010,8 +1070,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1021,12 +1082,12 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1034,8 +1095,9 @@
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1045,12 +1107,12 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="3"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1058,8 +1120,9 @@
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1069,12 +1132,12 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
+      <c r="J14" s="4"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -1082,8 +1145,9 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1093,12 +1157,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -1106,8 +1170,9 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1117,12 +1182,12 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -1130,8 +1195,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1141,12 +1207,12 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -1154,8 +1220,9 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1165,12 +1232,12 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="4"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -1178,8 +1245,9 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1189,12 +1257,12 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -1202,8 +1270,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1213,12 +1282,12 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -1226,8 +1295,9 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1237,12 +1307,12 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -1250,8 +1320,9 @@
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1261,12 +1332,12 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="3"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -1274,8 +1345,9 @@
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1285,12 +1357,12 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="3"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -1298,8 +1370,9 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1309,12 +1382,12 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="3"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -1322,8 +1395,9 @@
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1333,12 +1407,12 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
@@ -1346,8 +1420,9 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1357,12 +1432,12 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="3"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
@@ -1370,8 +1445,9 @@
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1381,12 +1457,12 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="3"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
@@ -1394,8 +1470,9 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1405,12 +1482,12 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="3"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
@@ -1418,8 +1495,9 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1429,12 +1507,12 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
@@ -1442,8 +1520,9 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1453,12 +1532,12 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="3"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
@@ -1466,8 +1545,9 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1477,12 +1557,12 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="3"/>
+      <c r="J31" s="4"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
@@ -1490,8 +1570,9 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1501,12 +1582,12 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="3"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
@@ -1514,8 +1595,9 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1525,12 +1607,12 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="3"/>
+      <c r="J33" s="4"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
@@ -1538,8 +1620,9 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1549,12 +1632,12 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="3"/>
+      <c r="J34" s="4"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
@@ -1562,8 +1645,9 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1573,12 +1657,12 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="3"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
@@ -1586,8 +1670,9 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-    </row>
-    <row r="36" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1597,12 +1682,12 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="3"/>
+      <c r="J36" s="4"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
@@ -1610,8 +1695,9 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-    </row>
-    <row r="37" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1621,12 +1707,12 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="3"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -1634,8 +1720,9 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-    </row>
-    <row r="38" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1645,12 +1732,12 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="3"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -1658,8 +1745,9 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-    </row>
-    <row r="39" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1669,7 +1757,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="3"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
@@ -1682,8 +1770,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1693,7 +1782,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="3"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -1706,8 +1795,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1717,7 +1807,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="3"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
@@ -1730,8 +1820,9 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
-    </row>
-    <row r="42" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1741,7 +1832,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -1754,8 +1845,9 @@
       <c r="T42" s="3"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
-    </row>
-    <row r="43" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1765,7 +1857,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="3"/>
+      <c r="J43" s="4"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
@@ -1778,8 +1870,9 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-    </row>
-    <row r="44" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1789,7 +1882,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="3"/>
+      <c r="J44" s="4"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -1802,8 +1895,9 @@
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
-    </row>
-    <row r="45" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1813,7 +1907,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="3"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -1826,8 +1920,9 @@
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1837,7 +1932,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="3"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1850,8 +1945,9 @@
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
-    </row>
-    <row r="47" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1861,7 +1957,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="3"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
@@ -1874,8 +1970,9 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
-    </row>
-    <row r="48" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1885,7 +1982,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="3"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="3"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
@@ -1898,8 +1995,9 @@
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
-    </row>
-    <row r="49" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1909,7 +2007,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="3"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
@@ -1922,8 +2020,9 @@
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
-    </row>
-    <row r="50" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1933,7 +2032,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="3"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1946,8 +2045,9 @@
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
-    </row>
-    <row r="51" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1957,7 +2057,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="3"/>
+      <c r="J51" s="4"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
@@ -1970,8 +2070,9 @@
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
-    </row>
-    <row r="52" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1981,7 +2082,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="3"/>
+      <c r="J52" s="4"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -1994,8 +2095,9 @@
       <c r="T52" s="3"/>
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
-    </row>
-    <row r="53" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2005,7 +2107,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="3"/>
+      <c r="J53" s="4"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -2018,8 +2120,9 @@
       <c r="T53" s="3"/>
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
-    </row>
-    <row r="54" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2029,7 +2132,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="3"/>
+      <c r="J54" s="4"/>
       <c r="K54" s="3"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -2042,8 +2145,9 @@
       <c r="T54" s="3"/>
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
-    </row>
-    <row r="55" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2053,7 +2157,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="3"/>
+      <c r="J55" s="4"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
@@ -2066,8 +2170,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2077,7 +2182,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="3"/>
+      <c r="J56" s="4"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -2090,8 +2195,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2101,7 +2207,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="3"/>
+      <c r="J57" s="4"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -2114,8 +2220,9 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
-    </row>
-    <row r="58" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2125,7 +2232,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="3"/>
+      <c r="J58" s="4"/>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
@@ -2138,8 +2245,9 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-    </row>
-    <row r="59" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2149,7 +2257,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="3"/>
+      <c r="J59" s="4"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -2162,8 +2270,9 @@
       <c r="T59" s="3"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-    </row>
-    <row r="60" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2173,7 +2282,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="3"/>
+      <c r="J60" s="4"/>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -2186,8 +2295,9 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-    </row>
-    <row r="61" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2197,7 +2307,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="3"/>
+      <c r="J61" s="4"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -2210,8 +2320,9 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-    </row>
-    <row r="62" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2221,7 +2332,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="3"/>
+      <c r="J62" s="4"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -2234,8 +2345,9 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-    </row>
-    <row r="63" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2245,7 +2357,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="3"/>
+      <c r="J63" s="4"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
@@ -2258,8 +2370,9 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-    </row>
-    <row r="64" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2269,7 +2382,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="3"/>
+      <c r="J64" s="4"/>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
@@ -2282,8 +2395,9 @@
       <c r="T64" s="3"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-    </row>
-    <row r="65" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2293,7 +2407,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="3"/>
+      <c r="J65" s="4"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
@@ -2306,8 +2420,9 @@
       <c r="T65" s="3"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-    </row>
-    <row r="66" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2317,7 +2432,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="3"/>
+      <c r="J66" s="4"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
@@ -2330,8 +2445,9 @@
       <c r="T66" s="3"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-    </row>
-    <row r="67" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2341,7 +2457,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="3"/>
+      <c r="J67" s="4"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
@@ -2354,8 +2470,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2365,7 +2482,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="3"/>
+      <c r="J68" s="4"/>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
@@ -2378,8 +2495,9 @@
       <c r="T68" s="3"/>
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
-    </row>
-    <row r="69" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2389,7 +2507,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="3"/>
+      <c r="J69" s="4"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
@@ -2402,8 +2520,9 @@
       <c r="T69" s="3"/>
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
-    </row>
-    <row r="70" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2413,7 +2532,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="3"/>
+      <c r="J70" s="4"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -2426,8 +2545,9 @@
       <c r="T70" s="3"/>
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
-    </row>
-    <row r="71" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2437,7 +2557,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="3"/>
+      <c r="J71" s="4"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -2450,8 +2570,9 @@
       <c r="T71" s="3"/>
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
-    </row>
-    <row r="72" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2461,7 +2582,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="3"/>
+      <c r="J72" s="4"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -2474,8 +2595,9 @@
       <c r="T72" s="3"/>
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
-    </row>
-    <row r="73" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2485,7 +2607,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="3"/>
+      <c r="J73" s="4"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
@@ -2498,8 +2620,9 @@
       <c r="T73" s="3"/>
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
-    </row>
-    <row r="74" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2509,7 +2632,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="3"/>
+      <c r="J74" s="4"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
@@ -2522,8 +2645,9 @@
       <c r="T74" s="3"/>
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
-    </row>
-    <row r="75" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2533,7 +2657,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="3"/>
+      <c r="J75" s="4"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
@@ -2546,8 +2670,9 @@
       <c r="T75" s="3"/>
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
-    </row>
-    <row r="76" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2557,7 +2682,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="3"/>
+      <c r="J76" s="4"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
@@ -2570,8 +2695,9 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
-    </row>
-    <row r="77" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2581,7 +2707,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="3"/>
+      <c r="J77" s="4"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
@@ -2594,8 +2720,9 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
-    </row>
-    <row r="78" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2605,7 +2732,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="3"/>
+      <c r="J78" s="4"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
@@ -2618,8 +2745,9 @@
       <c r="T78" s="3"/>
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
-    </row>
-    <row r="79" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2629,7 +2757,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="3"/>
+      <c r="J79" s="4"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
@@ -2642,8 +2770,9 @@
       <c r="T79" s="3"/>
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
-    </row>
-    <row r="80" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2653,7 +2782,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="3"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
@@ -2666,8 +2795,9 @@
       <c r="T80" s="3"/>
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
-    </row>
-    <row r="81" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2677,7 +2807,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="3"/>
+      <c r="J81" s="4"/>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -2690,8 +2820,9 @@
       <c r="T81" s="3"/>
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
-    </row>
-    <row r="82" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2701,7 +2832,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="3"/>
+      <c r="J82" s="4"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
@@ -2714,8 +2845,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2725,7 +2857,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="3"/>
+      <c r="J83" s="4"/>
       <c r="K83" s="3"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
@@ -2738,8 +2870,9 @@
       <c r="T83" s="3"/>
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
-    </row>
-    <row r="84" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2749,7 +2882,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="3"/>
+      <c r="J84" s="4"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
@@ -2762,8 +2895,9 @@
       <c r="T84" s="3"/>
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
-    </row>
-    <row r="85" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2773,7 +2907,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="3"/>
+      <c r="J85" s="4"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -2786,8 +2920,9 @@
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
-    </row>
-    <row r="86" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2797,7 +2932,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="3"/>
+      <c r="J86" s="4"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -2810,8 +2945,9 @@
       <c r="T86" s="3"/>
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
-    </row>
-    <row r="87" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2821,7 +2957,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="3"/>
+      <c r="J87" s="4"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -2834,8 +2970,9 @@
       <c r="T87" s="3"/>
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
-    </row>
-    <row r="88" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2845,7 +2982,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="3"/>
+      <c r="J88" s="4"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -2858,8 +2995,9 @@
       <c r="T88" s="3"/>
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
-    </row>
-    <row r="89" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2869,7 +3007,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="3"/>
+      <c r="J89" s="4"/>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
@@ -2882,8 +3020,9 @@
       <c r="T89" s="3"/>
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
-    </row>
-    <row r="90" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2893,7 +3032,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="3"/>
+      <c r="J90" s="4"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
@@ -2906,8 +3045,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2917,7 +3057,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="3"/>
+      <c r="J91" s="4"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -2930,8 +3070,9 @@
       <c r="T91" s="3"/>
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
-    </row>
-    <row r="92" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2941,7 +3082,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="3"/>
+      <c r="J92" s="4"/>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -2954,8 +3095,9 @@
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
-    </row>
-    <row r="93" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2965,7 +3107,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="3"/>
+      <c r="J93" s="4"/>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -2978,8 +3120,9 @@
       <c r="T93" s="3"/>
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
-    </row>
-    <row r="94" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2989,7 +3132,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="3"/>
+      <c r="J94" s="4"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -3002,8 +3145,9 @@
       <c r="T94" s="3"/>
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
-    </row>
-    <row r="95" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3013,7 +3157,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="3"/>
+      <c r="J95" s="4"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
@@ -3026,8 +3170,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3037,7 +3182,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="3"/>
+      <c r="J96" s="4"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -3050,8 +3195,9 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
-    </row>
-    <row r="97" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3061,7 +3207,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="3"/>
+      <c r="J97" s="4"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -3074,8 +3220,9 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
-    </row>
-    <row r="98" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3085,7 +3232,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="3"/>
+      <c r="J98" s="4"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -3098,8 +3245,9 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
-    </row>
-    <row r="99" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3109,7 +3257,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="3"/>
+      <c r="J99" s="4"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
@@ -3122,8 +3270,9 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
-    </row>
-    <row r="100" spans="1:22" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3133,7 +3282,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="3"/>
+      <c r="J100" s="4"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
@@ -3146,6 +3295,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45729DE5-64A0-47E0-9E45-8D249705AF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856CD4B-7ADA-4519-B9CE-7700DBC24539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>转向速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mathematicians</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学家</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +615,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1072,16 +1080,32 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="B12" s="3">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="4">
+        <v>400</v>
+      </c>
+      <c r="F12" s="4">
+        <v>800</v>
+      </c>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="4">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.1</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A856CD4B-7ADA-4519-B9CE-7700DBC24539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F680A4-4597-4467-A1A2-99BDAD29707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
+    <sheet name="Bosses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -615,7 +616,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1080,32 +1081,16 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
     </row>
-    <row r="12" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>1008</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4">
-        <v>400</v>
-      </c>
-      <c r="F12" s="4">
-        <v>800</v>
-      </c>
-      <c r="G12" s="4">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4">
-        <v>70</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.1</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -3326,4 +3311,2610 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
+  <dimension ref="A1:W100"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
+    <col min="6" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4">
+        <v>400</v>
+      </c>
+      <c r="F5" s="4">
+        <v>800</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4">
+        <v>70</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+    </row>
+    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+    </row>
+    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+    </row>
+    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="10"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+    </row>
+    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+    </row>
+    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+    </row>
+    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+    </row>
+    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+    </row>
+    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+    </row>
+    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+    </row>
+    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+    </row>
+    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+    </row>
+    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+    </row>
+    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+    </row>
+    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+    </row>
+    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+    </row>
+    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+    </row>
+    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+    </row>
+    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+    </row>
+    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+    </row>
+    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+    </row>
+    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+    </row>
+    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+    </row>
+    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+    </row>
+    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+    </row>
+    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+    </row>
+    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+    </row>
+    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+    </row>
+    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+    </row>
+    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+    </row>
+    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+    </row>
+    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+    </row>
+    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+    </row>
+    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+    </row>
+    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+    </row>
+    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+    </row>
+    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3"/>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+    </row>
+    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+    </row>
+    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3"/>
+      <c r="V58" s="3"/>
+      <c r="W58" s="3"/>
+    </row>
+    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+      <c r="W59" s="3"/>
+    </row>
+    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+    </row>
+    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+      <c r="W61" s="3"/>
+    </row>
+    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="3"/>
+    </row>
+    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+    </row>
+    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3"/>
+    </row>
+    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3"/>
+    </row>
+    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3"/>
+    </row>
+    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3"/>
+    </row>
+    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+    </row>
+    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+    </row>
+    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+    </row>
+    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+    </row>
+    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+    </row>
+    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+    </row>
+    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+    </row>
+    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+    </row>
+    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+    </row>
+    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+    </row>
+    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+    </row>
+    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+    </row>
+    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+    </row>
+    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+    </row>
+    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+    </row>
+    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+    </row>
+    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+    </row>
+    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+    </row>
+    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+    </row>
+    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+    </row>
+    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+    </row>
+    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+    </row>
+    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+    </row>
+    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="3"/>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3"/>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+    </row>
+    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3"/>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+    </row>
+    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+    </row>
+    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="3"/>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3"/>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+    </row>
+    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+    </row>
+    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="3"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3"/>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F680A4-4597-4467-A1A2-99BDAD29707B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BBCF09-15DA-492D-8A36-D72EFF34617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:I12"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -806,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -847,10 +847,10 @@
         <v>23</v>
       </c>
       <c r="E6" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -888,10 +888,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F7" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -929,10 +929,10 @@
         <v>26</v>
       </c>
       <c r="E8" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F8" s="4">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -970,10 +970,10 @@
         <v>29</v>
       </c>
       <c r="E9" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>
@@ -1052,7 +1052,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="4">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F11" s="4">
         <v>600</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BBCF09-15DA-492D-8A36-D72EFF34617A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBABD04-498E-4760-BE5A-0EF19F7E60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>数学家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹数量</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -616,7 +624,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -628,7 +636,7 @@
     <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
     <col min="6" max="8" width="12.5546875" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16.21875" style="9" customWidth="1"/>
     <col min="11" max="12" width="22.88671875" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
@@ -666,7 +674,9 @@
       <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
@@ -709,7 +719,9 @@
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -779,7 +791,9 @@
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -818,9 +832,11 @@
         <v>0</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -861,7 +877,9 @@
       <c r="I6" s="4">
         <v>1</v>
       </c>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -902,7 +920,9 @@
       <c r="I7" s="4">
         <v>1</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -943,7 +963,9 @@
       <c r="I8" s="4">
         <v>1</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>1</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -984,7 +1006,9 @@
       <c r="I9" s="4">
         <v>1</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1025,7 +1049,9 @@
       <c r="I10" s="4">
         <v>0.1</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1066,7 +1092,9 @@
       <c r="I11" s="4">
         <v>1</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBABD04-498E-4760-BE5A-0EF19F7E60BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE037E6-8297-456A-B83E-ECC116349C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -189,6 +189,14 @@
   </si>
   <si>
     <t>子弹数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大小</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,7 +632,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -636,8 +644,9 @@
     <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
     <col min="6" max="8" width="12.5546875" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="16.21875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="22.88671875" customWidth="1"/>
+    <col min="10" max="10" width="6.5546875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -677,7 +686,9 @@
       <c r="J1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
@@ -722,7 +733,9 @@
       <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="2"/>
@@ -763,7 +776,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -794,7 +807,9 @@
       <c r="J4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="2"/>
@@ -837,7 +852,9 @@
       <c r="J5" s="4">
         <v>4</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>0.5</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="4"/>
@@ -880,7 +897,9 @@
       <c r="J6" s="4">
         <v>1</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -923,7 +942,9 @@
       <c r="J7" s="4">
         <v>1</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -966,7 +987,9 @@
       <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1009,7 +1032,9 @@
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1052,7 +1077,9 @@
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1095,7 +1122,9 @@
       <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE037E6-8297-456A-B83E-ECC116349C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB79B0C-AEA7-4689-A6B9-32FC07198F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -197,6 +197,14 @@
   </si>
   <si>
     <t>大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger_factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险系数</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +640,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -646,7 +654,7 @@
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
     <col min="10" max="10" width="6.5546875" style="9" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="13.44140625" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
@@ -689,7 +697,9 @@
       <c r="K1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="8"/>
+      <c r="L1" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="M1" s="8"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -736,7 +746,9 @@
       <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -810,7 +822,9 @@
       <c r="K4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -855,7 +869,9 @@
       <c r="K5" s="3">
         <v>0.5</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -900,7 +916,9 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
@@ -945,7 +963,9 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>2</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
@@ -990,7 +1010,9 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
@@ -1035,7 +1057,9 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>4</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
@@ -1080,7 +1104,9 @@
       <c r="K10" s="3">
         <v>1</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>3</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
@@ -1125,7 +1151,9 @@
       <c r="K11" s="3">
         <v>1</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>2</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB79B0C-AEA7-4689-A6B9-32FC07198F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30217C7-1A29-4FE9-99AA-090FD7589EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>危险系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_exp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得经验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹追踪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +652,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -649,13 +661,15 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" style="9" customWidth="1"/>
     <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
     <col min="10" max="10" width="6.5546875" style="9" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
@@ -700,7 +714,9 @@
       <c r="L1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -749,7 +765,9 @@
       <c r="L2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="7"/>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -811,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
@@ -825,7 +843,9 @@
       <c r="L4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>45</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -872,7 +892,9 @@
       <c r="L5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>1.5</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
@@ -919,7 +941,9 @@
       <c r="L6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>1.5</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
       <c r="P6" s="3"/>
@@ -966,7 +990,9 @@
       <c r="L7" s="3">
         <v>2</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>3</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
       <c r="P7" s="3"/>
@@ -1013,7 +1039,9 @@
       <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="3"/>
@@ -1060,7 +1088,9 @@
       <c r="L9" s="3">
         <v>4</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>3.5</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
@@ -1107,7 +1137,9 @@
       <c r="L10" s="3">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>3</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="4"/>
       <c r="P10" s="3"/>
@@ -1154,7 +1186,9 @@
       <c r="L11" s="3">
         <v>2</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>2</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="4"/>
       <c r="P11" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30217C7-1A29-4FE9-99AA-090FD7589EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5977FB0-28B5-4740-8B6D-E53B65DCE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -169,10 +169,6 @@
   </si>
   <si>
     <t>targeting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转向速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -649,10 +645,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -706,16 +702,16 @@
         <v>18</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -829,22 +825,22 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3436,22 +3432,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="9" customWidth="1"/>
-    <col min="6" max="8" width="12.5546875" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
-    <col min="11" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
@@ -3487,10 +3486,18 @@
       <c r="I1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -3530,10 +3537,18 @@
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -3595,15 +3610,23 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -3621,10 +3644,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
         <v>400</v>
@@ -3641,10 +3664,18 @@
       <c r="I5" s="4">
         <v>0.1</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="J5" s="4">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5977FB0-28B5-4740-8B6D-E53B65DCE659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575627D-61E2-4D28-8C2F-42BE60AB5C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -213,6 +213,14 @@
   </si>
   <si>
     <t>子弹追踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheDoctor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3433,7 +3441,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E6" sqref="E6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3689,18 +3697,42 @@
     </row>
     <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+      <c r="B6" s="3">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4">
+        <v>400</v>
+      </c>
+      <c r="F6" s="4">
+        <v>800</v>
+      </c>
+      <c r="G6" s="4">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>70</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
+        <v>10</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
       <c r="P6" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6575627D-61E2-4D28-8C2F-42BE60AB5C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6E8A8B-81D4-4300-81A5-6AC3F81F2C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -221,6 +221,14 @@
   </si>
   <si>
     <t>TheDoctor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>骑士</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheKnight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3441,7 +3449,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:M6"/>
+      <selection activeCell="E7" sqref="E7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3746,18 +3754,42 @@
     </row>
     <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="B7" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4">
+        <v>400</v>
+      </c>
+      <c r="F7" s="4">
+        <v>800</v>
+      </c>
+      <c r="G7" s="4">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4">
+        <v>70</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
+        <v>10</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="4"/>
       <c r="P7" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6E8A8B-81D4-4300-81A5-6AC3F81F2C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AF4EE-7150-4844-B014-3331CFAE1E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3449,7 +3449,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:M7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3463,7 +3463,7 @@
     <col min="7" max="7" width="9.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
@@ -3603,7 +3603,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>400</v>
       </c>
       <c r="F7" s="4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57AF4EE-7150-4844-B014-3331CFAE1E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD12B87-A803-4B8A-B039-AA3873FFB9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3449,7 +3449,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3603,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3770,10 +3770,10 @@
         <v>300</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H7" s="4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4">
         <v>0.1</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD12B87-A803-4B8A-B039-AA3873FFB9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F6822-3D17-4ED9-B98F-F28ED97C274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -208,10 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>获得经验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>子弹追踪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -229,6 +225,10 @@
   </si>
   <si>
     <t>TheKnight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得经验（球数量）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +661,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D1:M4"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -681,7 +681,7 @@
     <col min="10" max="10" width="6.5546875" style="9" customWidth="1"/>
     <col min="11" max="11" width="6.5546875" customWidth="1"/>
     <col min="12" max="12" width="7" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -841,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
@@ -856,7 +856,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="4"/>
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="M9" s="3">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3"/>
       <c r="O9" s="4"/>
@@ -3448,8 +3448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3466,7 +3466,7 @@
     <col min="10" max="10" width="9.33203125" style="9" customWidth="1"/>
     <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
     <col min="14" max="14" width="13.5546875" customWidth="1"/>
     <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
@@ -3563,7 +3563,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -3603,7 +3603,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>16</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>19</v>
@@ -3641,7 +3641,7 @@
         <v>42</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3709,10 +3709,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="E6" s="4">
         <v>400</v>
@@ -3758,10 +3758,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F6822-3D17-4ED9-B98F-F28ED97C274B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A68FC74-6640-4EEA-93FC-08C7F3BBDD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -664,7 +664,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3603,7 +3603,7 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A68FC74-6640-4EEA-93FC-08C7F3BBDD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E304EA4-35F8-42DF-B86C-73EE920C52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -65,14 +65,6 @@
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光束1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>光束2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -125,10 +117,6 @@
   </si>
   <si>
     <t>Boltthrower</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>典狱长</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -229,6 +217,34 @@
   </si>
   <si>
     <t>获得经验（球数量）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投射器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>静止不动，然后随机移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动并追赶玩家，速度最终变快</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在随机方向缓慢移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲到屏幕尽头，然后回来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -664,12 +680,12 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" customWidth="1"/>
@@ -700,34 +716,34 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -754,25 +770,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>3</v>
@@ -829,34 +845,34 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -870,21 +886,23 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4">
         <v>50</v>
       </c>
       <c r="F5" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -919,15 +937,17 @@
       <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
         <v>50</v>
@@ -968,15 +988,17 @@
       <c r="W6" s="3"/>
     </row>
     <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4">
         <v>60</v>
@@ -1017,21 +1039,23 @@
       <c r="W7" s="3"/>
     </row>
     <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4">
         <v>30</v>
       </c>
       <c r="F8" s="4">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>
@@ -1071,10 +1095,10 @@
         <v>1005</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>100</v>
@@ -1120,10 +1144,10 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>100</v>
@@ -1169,10 +1193,10 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4">
         <v>100</v>
@@ -3485,34 +3509,34 @@
         <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="H1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -3539,25 +3563,25 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>3</v>
@@ -3614,34 +3638,34 @@
         <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -3660,10 +3684,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>400</v>
@@ -3709,10 +3733,10 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4">
         <v>400</v>
@@ -3758,10 +3782,10 @@
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4">
         <v>400</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E304EA4-35F8-42DF-B86C-73EE920C52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7762310-2C0F-4F55-890A-7E8D2D219BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t>冲到屏幕尽头，然后回来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐玩家，打死会分裂成两个相同的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锁定玩家，冲，重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追逐玩家，生成克隆体</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +692,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1102,9 @@
       <c r="W8" s="3"/>
     </row>
     <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="B9" s="3">
         <v>1005</v>
       </c>
@@ -1139,7 +1153,9 @@
       <c r="W9" s="3"/>
     </row>
     <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="B10" s="3">
         <v>1006</v>
       </c>
@@ -1153,7 +1169,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="4">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
@@ -1188,7 +1204,9 @@
       <c r="W10" s="3"/>
     </row>
     <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="B11" s="3">
         <v>1007</v>
       </c>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7762310-2C0F-4F55-890A-7E8D2D219BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCFD6F-DB41-4652-83F2-C574254D864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,12 +692,12 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" customWidth="1"/>
@@ -911,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4">
         <v>300</v>
@@ -962,7 +962,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="F6" s="4">
         <v>200</v>
@@ -1013,7 +1013,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="4">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="F7" s="4">
         <v>200</v>
@@ -1064,7 +1064,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4">
         <v>1000</v>
@@ -1115,7 +1115,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="4">
         <v>200</v>
@@ -1166,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F10" s="4">
         <v>500</v>
@@ -1217,7 +1217,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F11" s="4">
         <v>600</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FCFD6F-DB41-4652-83F2-C574254D864B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410A5CB-22B5-416D-B7EA-F648D8374A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,7 @@
         <v>200</v>
       </c>
       <c r="F8" s="4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G8" s="4">
         <v>10</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410A5CB-22B5-416D-B7EA-F648D8374A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A8437-F098-42D9-9F95-6CB7B69E95D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <v>1</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565A8437-F098-42D9-9F95-6CB7B69E95D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C0557-073A-450A-B124-E97F42C737A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
@@ -3490,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3815,7 +3815,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="I7" s="4">
         <v>0.1</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C0557-073A-450A-B124-E97F42C737A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF2A9C-C035-47CF-8AE7-7181C5F21C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -258,6 +258,13 @@
   <si>
     <t>追逐玩家，生成克隆体</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClockworkMage</t>
   </si>
 </sst>
 </file>
@@ -3491,7 +3498,7 @@
   <dimension ref="A1:W100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E8" sqref="E8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3843,20 +3850,44 @@
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
     </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="B8" s="3">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="4">
+        <v>400</v>
+      </c>
+      <c r="F8" s="4">
+        <v>300</v>
+      </c>
+      <c r="G8" s="4">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
       <c r="P8" s="3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AF2A9C-C035-47CF-8AE7-7181C5F21C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DA00D6-DF1B-4818-88C1-F32429D52615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>##var</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>ClockworkMage</t>
+  </si>
+  <si>
+    <t>dragon_bone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骨名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClockworkMage/ClockworkKnightD_ske</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3495,10 +3507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:X98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:M8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3507,23 +3519,24 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="9" customWidth="1"/>
-    <col min="11" max="11" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,44 +3550,47 @@
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3588,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>15</v>
@@ -3609,23 +3625,26 @@
         <v>15</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3641,7 +3660,7 @@
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -3651,8 +3670,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3666,182 +3686,191 @@
         <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>400</v>
       </c>
-      <c r="F5" s="4">
-        <v>800</v>
-      </c>
       <c r="G5" s="4">
+        <v>300</v>
+      </c>
+      <c r="H5" s="4">
+        <v>40</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K5" s="4">
+        <v>4</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3">
         <v>10</v>
       </c>
-      <c r="H5" s="4">
-        <v>70</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>4</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>5</v>
-      </c>
-      <c r="M5" s="3">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4">
+        <v>58</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4">
         <v>400</v>
       </c>
-      <c r="F6" s="4">
-        <v>800</v>
-      </c>
       <c r="G6" s="4">
+        <v>300</v>
+      </c>
+      <c r="H6" s="4">
+        <v>40</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>5</v>
+      </c>
+      <c r="N6" s="3">
         <v>10</v>
       </c>
-      <c r="H6" s="4">
-        <v>70</v>
-      </c>
-      <c r="I6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>4</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3">
-        <v>5</v>
-      </c>
-      <c r="M6" s="3">
-        <v>10</v>
-      </c>
-      <c r="N6" s="3"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A7" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="4">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>400</v>
       </c>
-      <c r="F7" s="4">
-        <v>300</v>
-      </c>
       <c r="G7" s="4">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="H7" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
+        <v>70</v>
+      </c>
+      <c r="J7" s="4">
         <v>0.1</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>5</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>10</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -3849,48 +3878,51 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="36.299999999999997" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="4">
+        <v>43</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
         <v>400</v>
       </c>
-      <c r="F8" s="4">
-        <v>300</v>
-      </c>
       <c r="G8" s="4">
-        <v>40</v>
+        <v>800</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I8" s="4">
+        <v>70</v>
+      </c>
+      <c r="J8" s="4">
         <v>0.1</v>
       </c>
-      <c r="J8" s="4">
+      <c r="K8" s="4">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -3898,9 +3930,10 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="10"/>
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
@@ -3910,12 +3943,12 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -3923,8 +3956,9 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3935,12 +3969,12 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -3948,8 +3982,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3960,12 +3995,12 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -3973,8 +4008,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3985,12 +4021,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -3998,8 +4034,9 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4010,12 +4047,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -4023,8 +4060,9 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4035,12 +4073,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -4048,8 +4086,9 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4060,12 +4099,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -4073,8 +4112,9 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4085,12 +4125,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -4098,8 +4138,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4110,12 +4151,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -4123,8 +4164,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4135,12 +4177,12 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -4148,8 +4190,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4160,12 +4203,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -4173,8 +4216,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4185,12 +4229,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -4198,8 +4242,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4210,12 +4255,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -4223,8 +4268,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4235,12 +4281,12 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -4248,8 +4294,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4260,12 +4307,12 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -4273,8 +4320,9 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4285,12 +4333,12 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -4298,8 +4346,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4310,12 +4359,12 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -4323,8 +4372,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4335,12 +4385,12 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -4348,8 +4398,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4360,12 +4411,12 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -4373,8 +4424,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4385,12 +4437,12 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -4398,8 +4450,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4410,12 +4463,12 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -4423,8 +4476,9 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4435,12 +4489,12 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -4448,8 +4502,9 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4460,12 +4515,12 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -4473,8 +4528,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4485,12 +4541,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -4498,8 +4554,9 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4510,12 +4567,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -4523,8 +4580,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4535,12 +4593,12 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -4548,8 +4606,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4560,12 +4619,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -4573,8 +4632,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4585,12 +4645,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -4598,8 +4658,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4610,11 +4671,11 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
+      <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
@@ -4623,8 +4684,9 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4635,11 +4697,11 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
@@ -4648,8 +4710,9 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4660,7 +4723,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -4673,8 +4736,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4685,7 +4749,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="4"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -4698,8 +4762,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4710,7 +4775,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -4723,8 +4788,9 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4735,7 +4801,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -4748,8 +4814,9 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4760,7 +4827,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -4773,8 +4840,9 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4785,7 +4853,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -4798,8 +4866,9 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4810,7 +4879,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -4823,8 +4892,9 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4835,7 +4905,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="4"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -4848,8 +4918,9 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4860,7 +4931,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -4873,8 +4944,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4885,7 +4957,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -4898,8 +4970,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4910,7 +4983,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -4923,8 +4996,9 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4935,7 +5009,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -4948,8 +5022,9 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4960,7 +5035,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -4973,8 +5048,9 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4985,7 +5061,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -4998,8 +5074,9 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5010,7 +5087,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="4"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -5023,8 +5100,9 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5035,7 +5113,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="4"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -5048,8 +5126,9 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5060,7 +5139,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="3"/>
+      <c r="K55" s="4"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -5073,8 +5152,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5085,7 +5165,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="3"/>
+      <c r="K56" s="4"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -5098,8 +5178,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5110,7 +5191,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="3"/>
+      <c r="K57" s="4"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -5123,8 +5204,9 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5135,7 +5217,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
+      <c r="K58" s="4"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -5148,8 +5230,9 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5160,7 +5243,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
+      <c r="K59" s="4"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -5173,8 +5256,9 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5185,7 +5269,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -5198,8 +5282,9 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5210,7 +5295,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="4"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -5223,8 +5308,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5235,7 +5321,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="4"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -5248,8 +5334,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5260,7 +5347,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="4"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -5273,8 +5360,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5285,7 +5373,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="4"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -5298,8 +5386,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5310,7 +5399,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -5323,8 +5412,9 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5335,7 +5425,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -5348,8 +5438,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5360,7 +5451,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="4"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -5373,8 +5464,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5385,7 +5477,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="4"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -5398,8 +5490,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5410,7 +5503,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="4"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -5423,8 +5516,9 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5435,7 +5529,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="4"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -5448,8 +5542,9 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5460,7 +5555,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="3"/>
+      <c r="K71" s="4"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -5473,8 +5568,9 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5485,7 +5581,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="4"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -5498,8 +5594,9 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5510,7 +5607,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="3"/>
+      <c r="K73" s="4"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -5523,8 +5620,9 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5535,7 +5633,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="3"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -5548,8 +5646,9 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5560,7 +5659,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="3"/>
+      <c r="K75" s="4"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -5573,8 +5672,9 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5585,7 +5685,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="4"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -5598,8 +5698,9 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5610,7 +5711,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
+      <c r="K77" s="4"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -5623,8 +5724,9 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5635,7 +5737,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="3"/>
+      <c r="K78" s="4"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -5648,8 +5750,9 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5660,7 +5763,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="3"/>
+      <c r="K79" s="4"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -5673,8 +5776,9 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5685,7 +5789,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3"/>
+      <c r="K80" s="4"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -5698,8 +5802,9 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5710,7 +5815,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="4"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -5723,8 +5828,9 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5735,7 +5841,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="4"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -5748,8 +5854,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5760,7 +5867,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="4"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -5773,8 +5880,9 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5785,7 +5893,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="4"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -5798,8 +5906,9 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5810,7 +5919,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="4"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -5823,8 +5932,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5835,7 +5945,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="4"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -5848,8 +5958,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5860,7 +5971,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -5873,8 +5984,9 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5885,7 +5997,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="4"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -5898,8 +6010,9 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5910,7 +6023,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -5923,8 +6036,9 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5935,7 +6049,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="3"/>
+      <c r="K90" s="4"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -5948,8 +6062,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5960,7 +6075,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="3"/>
+      <c r="K91" s="4"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -5973,8 +6088,9 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5985,7 +6101,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="3"/>
+      <c r="K92" s="4"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -5998,8 +6114,9 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6010,7 +6127,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="3"/>
+      <c r="K93" s="4"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -6023,8 +6140,9 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6035,7 +6153,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="3"/>
+      <c r="K94" s="4"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -6048,8 +6166,9 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6060,7 +6179,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="3"/>
+      <c r="K95" s="4"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -6073,8 +6192,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6085,7 +6205,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="3"/>
+      <c r="K96" s="4"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -6098,8 +6218,9 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6110,7 +6231,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="3"/>
+      <c r="K97" s="4"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -6123,8 +6244,9 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6135,7 +6257,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
+      <c r="K98" s="4"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -6148,56 +6270,7 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
-      <c r="Q99" s="3"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="3"/>
-      <c r="T99" s="3"/>
-      <c r="U99" s="3"/>
-      <c r="V99" s="3"/>
-      <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
+      <c r="X98" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DA00D6-DF1B-4818-88C1-F32429D52615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42705049-61F5-491F-9E29-213A3494D881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -228,19 +228,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>静止不动，然后随机移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>移动并追赶玩家，速度最终变快</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>雪花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在随机方向缓慢移动</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -276,6 +268,14 @@
   </si>
   <si>
     <t>ClockworkMage/ClockworkKnightD_ske</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环治疗附近敌人，追逐玩家</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲向玩家，同时射击</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +708,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -917,8 +917,8 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>49</v>
+      <c r="A5" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B5" s="3">
         <v>1001</v>
@@ -969,7 +969,7 @@
     </row>
     <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3">
         <v>1002</v>
@@ -1020,13 +1020,13 @@
     </row>
     <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>22</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="4">
         <v>1</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="9" spans="1:23" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3">
         <v>1005</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="10" spans="1:23" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="3">
         <v>1006</v>
@@ -1224,7 +1224,7 @@
     </row>
     <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>1007</v>
@@ -3509,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:X98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3550,7 +3550,7 @@
         <v>19</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>11</v>
@@ -3686,7 +3686,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
@@ -3782,13 +3782,13 @@
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4">
         <v>400</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42705049-61F5-491F-9E29-213A3494D881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D32E8-F467-46F3-ABB4-154FF9C6FCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,12 +711,12 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="14" style="9" customWidth="1"/>
@@ -933,7 +933,7 @@
         <v>200</v>
       </c>
       <c r="F5" s="4">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -951,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="L5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
@@ -984,7 +984,7 @@
         <v>200</v>
       </c>
       <c r="F6" s="4">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -1035,7 +1035,7 @@
         <v>200</v>
       </c>
       <c r="F7" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -1137,7 +1137,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578D32E8-F467-46F3-ABB4-154FF9C6FCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD0D69-C053-4078-AD2C-F82D072332AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>##var</t>
   </si>
@@ -276,6 +276,14 @@
   </si>
   <si>
     <t>冲向玩家，同时射击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TheEmoji</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -708,10 +716,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3507,10 +3515,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
-  <dimension ref="A1:X98"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3732,10 +3740,10 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
@@ -3776,20 +3784,18 @@
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
     </row>
-    <row r="6" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>400</v>
       </c>
@@ -3828,31 +3834,31 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
     </row>
-    <row r="7" spans="1:24" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>5</v>
-      </c>
+    <row r="7" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="F7" s="4">
         <v>400</v>
       </c>
       <c r="G7" s="4">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H7" s="4">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I7" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J7" s="4">
         <v>0.1</v>
@@ -3869,9 +3875,9 @@
       <c r="N7" s="3">
         <v>10</v>
       </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -3880,18 +3886,18 @@
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
     </row>
-    <row r="8" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:24" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3">
         <v>1004</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4">
@@ -3932,21 +3938,47 @@
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
     </row>
-    <row r="9" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+    <row r="9" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="F9" s="4">
+        <v>400</v>
+      </c>
+      <c r="G9" s="4">
+        <v>800</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10</v>
+      </c>
+      <c r="I9" s="4">
+        <v>70</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>4</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
+        <v>10</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
@@ -4676,7 +4708,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -6272,6 +6304,32 @@
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
     </row>
+    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="3"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3"/>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBD0D69-C053-4078-AD2C-F82D072332AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F142D-3FA8-42D2-955A-C0C00428BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3753,7 +3753,7 @@
         <v>300</v>
       </c>
       <c r="H5" s="4">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319F142D-3FA8-42D2-955A-C0C00428BC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A24C2C-F15F-4A52-AD9C-E7E4E0DFD4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -716,10 +716,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -941,7 +941,7 @@
         <v>200</v>
       </c>
       <c r="F5" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="G5" s="4">
         <v>10</v>
@@ -989,10 +989,10 @@
         <v>21</v>
       </c>
       <c r="E6" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F6" s="4">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G6" s="4">
         <v>10</v>
@@ -1040,10 +1040,10 @@
         <v>22</v>
       </c>
       <c r="E7" s="4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F7" s="4">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G7" s="4">
         <v>10</v>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <v>3</v>
@@ -1091,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="F8" s="4">
         <v>3000</v>
@@ -1112,10 +1112,10 @@
         <v>1</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="4"/>
@@ -1142,10 +1142,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F9" s="4">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>
@@ -1193,10 +1193,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="4">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="F10" s="4">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G10" s="4">
         <v>5</v>
@@ -1244,10 +1244,10 @@
         <v>29</v>
       </c>
       <c r="E11" s="4">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F11" s="4">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="G11" s="4">
         <v>10</v>
@@ -3517,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A24C2C-F15F-4A52-AD9C-E7E4E0DFD4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591E9F1-94EF-4B16-8FA2-E286DFA688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -716,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
@@ -3517,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3747,7 +3747,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="G5" s="4">
         <v>300</v>
@@ -3797,13 +3797,13 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="G6" s="4">
         <v>300</v>
       </c>
       <c r="H6" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -3849,13 +3849,13 @@
         <v>59</v>
       </c>
       <c r="F7" s="4">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="4">
         <v>300</v>
       </c>
       <c r="H7" s="4">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6591E9F1-94EF-4B16-8FA2-E286DFA688C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6D00E-5F33-478A-BAD3-4F8090B40068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,7 +719,7 @@
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -944,7 +944,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>350</v>
       </c>
       <c r="G6" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -1097,7 +1097,7 @@
         <v>3000</v>
       </c>
       <c r="G8" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -3518,7 +3518,7 @@
   <dimension ref="A1:X99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B6D00E-5F33-478A-BAD3-4F8090B40068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10C6AA7-A510-4FAD-B288-219C808DB71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -284,6 +284,14 @@
   </si>
   <si>
     <t>TheEmoji</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_degeneration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹退化</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3515,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
-  <dimension ref="A1:X99"/>
+  <dimension ref="A1:Y99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3533,18 +3541,18 @@
     <col min="8" max="8" width="9.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" style="9" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.5546875" customWidth="1"/>
-    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="11" max="12" width="9.33203125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:25" ht="26.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3579,26 +3587,29 @@
         <v>34</v>
       </c>
       <c r="L1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="6"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -3636,23 +3647,26 @@
         <v>15</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="2"/>
+      <c r="O2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="5"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3669,7 +3683,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
-      <c r="O3" s="2"/>
+      <c r="O3" s="7"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -3679,8 +3693,9 @@
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -3715,26 +3730,29 @@
         <v>35</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>1001</v>
@@ -3747,7 +3765,7 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="4">
         <v>300</v>
@@ -3764,27 +3782,30 @@
       <c r="K5" s="4">
         <v>4</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3">
         <v>1</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>5</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="3">
         <v>10</v>
       </c>
-      <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="4"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
-    </row>
-    <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>1002</v>
@@ -3797,7 +3818,7 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G6" s="4">
         <v>300</v>
@@ -3814,27 +3835,30 @@
       <c r="K6" s="4">
         <v>4</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3">
         <v>1</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>5</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>10</v>
       </c>
-      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="4"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" ht="54.45" x14ac:dyDescent="0.45">
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="54.45" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="3">
         <v>1003</v>
@@ -3866,27 +3890,30 @@
       <c r="K7" s="4">
         <v>4</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3">
         <v>1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>5</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="3">
         <v>10</v>
       </c>
-      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="4"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="1:24" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="37.549999999999997" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
@@ -3918,18 +3945,20 @@
       <c r="K8" s="4">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3">
         <v>1</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10</v>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -3937,8 +3966,9 @@
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
-    </row>
-    <row r="9" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="23" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -3970,18 +4000,20 @@
       <c r="K9" s="4">
         <v>4</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>1</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10</v>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -3989,8 +4021,9 @@
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
-    </row>
-    <row r="10" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4002,12 +4035,12 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="3"/>
+      <c r="L10" s="4"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -4015,8 +4048,9 @@
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
-    </row>
-    <row r="11" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4028,12 +4062,12 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="3"/>
+      <c r="L11" s="4"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -4041,8 +4075,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4054,12 +4089,12 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="3"/>
+      <c r="L12" s="4"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -4067,8 +4102,9 @@
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
-    </row>
-    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4080,12 +4116,12 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="3"/>
+      <c r="L13" s="4"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -4093,8 +4129,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-    </row>
-    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4106,12 +4143,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="3"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -4119,8 +4156,9 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4132,12 +4170,12 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -4145,8 +4183,9 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4158,12 +4197,12 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -4171,8 +4210,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4184,12 +4224,12 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -4197,8 +4237,9 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
-    </row>
-    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4210,12 +4251,12 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -4223,8 +4264,9 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
-    </row>
-    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4236,12 +4278,12 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -4249,8 +4291,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4262,12 +4305,12 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -4275,8 +4318,9 @@
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
-    </row>
-    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4288,12 +4332,12 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="4"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -4301,8 +4345,9 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4314,12 +4359,12 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -4327,8 +4372,9 @@
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4340,12 +4386,12 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="4"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -4353,8 +4399,9 @@
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
-    </row>
-    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4366,12 +4413,12 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -4379,8 +4426,9 @@
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4392,12 +4440,12 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="4"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
@@ -4405,8 +4453,9 @@
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
-    </row>
-    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4418,12 +4467,12 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -4431,8 +4480,9 @@
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
       <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4444,12 +4494,12 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
@@ -4457,8 +4507,9 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
-    </row>
-    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4470,12 +4521,12 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
@@ -4483,8 +4534,9 @@
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4496,12 +4548,12 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -4509,8 +4561,9 @@
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
-    </row>
-    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4522,12 +4575,12 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
+      <c r="L30" s="4"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
@@ -4535,8 +4588,9 @@
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
-    </row>
-    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4548,12 +4602,12 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="4"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="4"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
@@ -4561,8 +4615,9 @@
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
-    </row>
-    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4574,12 +4629,12 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="4"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="4"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -4587,8 +4642,9 @@
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
-    </row>
-    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4600,12 +4656,12 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
+      <c r="L33" s="4"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="4"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
@@ -4613,8 +4669,9 @@
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
-    </row>
-    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4626,12 +4683,12 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
+      <c r="L34" s="4"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
@@ -4639,8 +4696,9 @@
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
-    </row>
-    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4652,12 +4710,12 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
+      <c r="L35" s="4"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="4"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
@@ -4665,8 +4723,9 @@
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
-    </row>
-    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4678,12 +4737,12 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
+      <c r="L36" s="4"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
@@ -4691,8 +4750,9 @@
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
-    </row>
-    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4704,12 +4764,12 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="4"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="4"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
@@ -4717,8 +4777,9 @@
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
-    </row>
-    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4730,7 +4791,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
+      <c r="L38" s="4"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -4743,8 +4804,9 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
-    </row>
-    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4756,7 +4818,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
+      <c r="L39" s="4"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -4769,8 +4831,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4782,7 +4845,7 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
+      <c r="L40" s="4"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -4795,8 +4858,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4808,7 +4872,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
+      <c r="L41" s="4"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -4821,8 +4885,9 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4834,7 +4899,7 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -4847,8 +4912,9 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4860,7 +4926,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
+      <c r="L43" s="4"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -4873,8 +4939,9 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4886,7 +4953,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="4"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -4899,8 +4966,9 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4912,7 +4980,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="4"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -4925,8 +4993,9 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4938,7 +5007,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
+      <c r="L46" s="4"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -4951,8 +5020,9 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4964,7 +5034,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
+      <c r="L47" s="4"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -4977,8 +5047,9 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4990,7 +5061,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="4"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -5003,8 +5074,9 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -5016,7 +5088,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="4"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -5029,8 +5101,9 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -5042,7 +5115,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
+      <c r="L50" s="4"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
@@ -5055,8 +5128,9 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5068,7 +5142,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="3"/>
+      <c r="L51" s="4"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
@@ -5081,8 +5155,9 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -5094,7 +5169,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="4"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
@@ -5107,8 +5182,9 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5120,7 +5196,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="3"/>
+      <c r="L53" s="4"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
@@ -5133,8 +5209,9 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5146,7 +5223,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="3"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
@@ -5159,8 +5236,9 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5172,7 +5250,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="3"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
@@ -5185,8 +5263,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5198,7 +5277,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="3"/>
+      <c r="L56" s="4"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
@@ -5211,8 +5290,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5224,7 +5304,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="3"/>
+      <c r="L57" s="4"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
@@ -5237,8 +5317,9 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5250,7 +5331,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
+      <c r="L58" s="4"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
@@ -5263,8 +5344,9 @@
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
       <c r="X58" s="3"/>
-    </row>
-    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5276,7 +5358,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="3"/>
+      <c r="L59" s="4"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
@@ -5289,8 +5371,9 @@
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
       <c r="X59" s="3"/>
-    </row>
-    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5302,7 +5385,7 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="3"/>
+      <c r="L60" s="4"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -5315,8 +5398,9 @@
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
       <c r="X60" s="3"/>
-    </row>
-    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5328,7 +5412,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="3"/>
+      <c r="L61" s="4"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -5341,8 +5425,9 @@
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
       <c r="X61" s="3"/>
-    </row>
-    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5354,7 +5439,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="3"/>
+      <c r="L62" s="4"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -5367,8 +5452,9 @@
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
       <c r="X62" s="3"/>
-    </row>
-    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5380,7 +5466,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="3"/>
+      <c r="L63" s="4"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -5393,8 +5479,9 @@
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
       <c r="X63" s="3"/>
-    </row>
-    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5406,7 +5493,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="3"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
@@ -5419,8 +5506,9 @@
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
       <c r="X64" s="3"/>
-    </row>
-    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5432,7 +5520,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="3"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
@@ -5445,8 +5533,9 @@
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
       <c r="X65" s="3"/>
-    </row>
-    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -5458,7 +5547,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="3"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
@@ -5471,8 +5560,9 @@
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
       <c r="X66" s="3"/>
-    </row>
-    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5484,7 +5574,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="3"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
@@ -5497,8 +5587,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -5510,7 +5601,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="3"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
@@ -5523,8 +5614,9 @@
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
       <c r="X68" s="3"/>
-    </row>
-    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5536,7 +5628,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="3"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
@@ -5549,8 +5641,9 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3"/>
-    </row>
-    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5562,7 +5655,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="3"/>
+      <c r="L70" s="4"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
@@ -5575,8 +5668,9 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3"/>
-    </row>
-    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5588,7 +5682,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="3"/>
+      <c r="L71" s="4"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
@@ -5601,8 +5695,9 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3"/>
-    </row>
-    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5614,7 +5709,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="3"/>
+      <c r="L72" s="4"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
@@ -5627,8 +5722,9 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3"/>
-    </row>
-    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y72" s="3"/>
+    </row>
+    <row r="73" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5640,7 +5736,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="3"/>
+      <c r="L73" s="4"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -5653,8 +5749,9 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3"/>
-    </row>
-    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y73" s="3"/>
+    </row>
+    <row r="74" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5666,7 +5763,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="3"/>
+      <c r="L74" s="4"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
@@ -5679,8 +5776,9 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3"/>
-    </row>
-    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y74" s="3"/>
+    </row>
+    <row r="75" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5692,7 +5790,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="3"/>
+      <c r="L75" s="4"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
@@ -5705,8 +5803,9 @@
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
-    </row>
-    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y75" s="3"/>
+    </row>
+    <row r="76" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5718,7 +5817,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="3"/>
+      <c r="L76" s="4"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
@@ -5731,8 +5830,9 @@
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
-    </row>
-    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y76" s="3"/>
+    </row>
+    <row r="77" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5744,7 +5844,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="3"/>
+      <c r="L77" s="4"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
@@ -5757,8 +5857,9 @@
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
-    </row>
-    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5770,7 +5871,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="3"/>
+      <c r="L78" s="4"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
@@ -5783,8 +5884,9 @@
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
-    </row>
-    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5796,7 +5898,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="3"/>
+      <c r="L79" s="4"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
@@ -5809,8 +5911,9 @@
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
-    </row>
-    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5822,7 +5925,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="3"/>
+      <c r="L80" s="4"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
@@ -5835,8 +5938,9 @@
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
-    </row>
-    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5848,7 +5952,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="3"/>
+      <c r="L81" s="4"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
@@ -5861,8 +5965,9 @@
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
-    </row>
-    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5874,7 +5979,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="3"/>
+      <c r="L82" s="4"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
@@ -5887,8 +5992,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5900,7 +6006,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="3"/>
+      <c r="L83" s="4"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
@@ -5913,8 +6019,9 @@
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
       <c r="X83" s="3"/>
-    </row>
-    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y83" s="3"/>
+    </row>
+    <row r="84" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5926,7 +6033,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="3"/>
+      <c r="L84" s="4"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
@@ -5939,8 +6046,9 @@
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
       <c r="X84" s="3"/>
-    </row>
-    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5952,7 +6060,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="3"/>
+      <c r="L85" s="4"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
@@ -5965,8 +6073,9 @@
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
       <c r="X85" s="3"/>
-    </row>
-    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5978,7 +6087,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="4"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
@@ -5991,8 +6100,9 @@
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
       <c r="X86" s="3"/>
-    </row>
-    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -6004,7 +6114,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="3"/>
+      <c r="L87" s="4"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
@@ -6017,8 +6127,9 @@
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
       <c r="X87" s="3"/>
-    </row>
-    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y87" s="3"/>
+    </row>
+    <row r="88" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -6030,7 +6141,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="3"/>
+      <c r="L88" s="4"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
@@ -6043,8 +6154,9 @@
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
       <c r="X88" s="3"/>
-    </row>
-    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -6056,7 +6168,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="3"/>
+      <c r="L89" s="4"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
@@ -6069,8 +6181,9 @@
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
       <c r="X89" s="3"/>
-    </row>
-    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -6082,7 +6195,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="3"/>
+      <c r="L90" s="4"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
@@ -6095,8 +6208,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -6108,7 +6222,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="3"/>
+      <c r="L91" s="4"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
@@ -6121,8 +6235,9 @@
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
       <c r="X91" s="3"/>
-    </row>
-    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y91" s="3"/>
+    </row>
+    <row r="92" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -6134,7 +6249,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="3"/>
+      <c r="L92" s="4"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
@@ -6147,8 +6262,9 @@
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
       <c r="X92" s="3"/>
-    </row>
-    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y92" s="3"/>
+    </row>
+    <row r="93" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6160,7 +6276,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="4"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
@@ -6173,8 +6289,9 @@
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
       <c r="X93" s="3"/>
-    </row>
-    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y93" s="3"/>
+    </row>
+    <row r="94" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -6186,7 +6303,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="4"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
@@ -6199,8 +6316,9 @@
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
       <c r="X94" s="3"/>
-    </row>
-    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y94" s="3"/>
+    </row>
+    <row r="95" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -6212,7 +6330,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="3"/>
+      <c r="L95" s="4"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
@@ -6225,8 +6343,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -6238,7 +6357,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="4"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
@@ -6251,8 +6370,9 @@
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
       <c r="X96" s="3"/>
-    </row>
-    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y96" s="3"/>
+    </row>
+    <row r="97" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -6264,7 +6384,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="4"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
@@ -6277,8 +6397,9 @@
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
       <c r="X97" s="3"/>
-    </row>
-    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y97" s="3"/>
+    </row>
+    <row r="98" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -6290,7 +6411,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="3"/>
+      <c r="L98" s="4"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
@@ -6303,8 +6424,9 @@
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
       <c r="X98" s="3"/>
-    </row>
-    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="Y98" s="3"/>
+    </row>
+    <row r="99" spans="1:25" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -6316,7 +6438,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="3"/>
+      <c r="L99" s="4"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
@@ -6329,6 +6451,7 @@
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
       <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Mobs.xlsx
+++ b/Tools/Luban/Datas/Mobs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10C6AA7-A510-4FAD-B288-219C808DB71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B17094-9233-45C3-937A-B618E90C2610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mobs" sheetId="1" r:id="rId1"/>
@@ -724,10 +724,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -952,7 +952,7 @@
         <v>150</v>
       </c>
       <c r="G5" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>350</v>
       </c>
       <c r="G6" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>250</v>
       </c>
       <c r="G7" s="4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H7" s="4">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>3000</v>
       </c>
       <c r="G8" s="4">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H8" s="4">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>250</v>
       </c>
       <c r="G9" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>450</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>550</v>
       </c>
       <c r="G11" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H11" s="4">
         <v>70</v>
@@ -3525,8 +3525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0701E0-B242-4436-8224-C8C9DE09C2EB}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -3771,7 +3771,7 @@
         <v>300</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>300</v>
       </c>
       <c r="H6" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>300</v>
       </c>
       <c r="H7" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
